--- a/data-raw/datasets_MSUpeers-WMUpeers.xlsx
+++ b/data-raw/datasets_MSUpeers-WMUpeers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilioxavieresposito/GitHub/theHUB/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89FC8A7-EBEE-C74C-9E4E-3BBD66659739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297B7ADB-427A-D048-8F75-89846E664C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="700" windowWidth="35000" windowHeight="24980" xr2:uid="{88C0ADCA-6F07-6A4E-8FA9-4CD01068784F}"/>
+    <workbookView xWindow="8660" yWindow="1860" windowWidth="35000" windowHeight="24980" xr2:uid="{88C0ADCA-6F07-6A4E-8FA9-4CD01068784F}"/>
   </bookViews>
   <sheets>
     <sheet name="MSUpeers" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="800">
   <si>
     <t>INSTNM</t>
   </si>
@@ -1552,12 +1552,6 @@
   </si>
   <si>
     <t>LSU</t>
-  </si>
-  <si>
-    <t>00201300</t>
-  </si>
-  <si>
-    <t>002013</t>
   </si>
   <si>
     <t>LA</t>
@@ -2841,10 +2835,10 @@
   <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2897,19 +2891,19 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>11</v>
@@ -2986,7 +2980,7 @@
         <v>23</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -3859,28 +3853,28 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C17" s="4">
         <v>104151</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>525</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>155</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I17" s="4">
         <v>15</v>
@@ -3913,10 +3907,10 @@
         <v>1</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -3975,10 +3969,10 @@
         <v>1</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -4037,10 +4031,10 @@
         <v>1</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -4099,10 +4093,10 @@
         <v>1</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -4161,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="T21" s="6" t="s">
         <v>68</v>
@@ -4223,36 +4217,36 @@
         <v>1</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C23" s="4">
         <v>209542</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>620</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>252</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I23" s="4">
         <v>21</v>
@@ -4285,7 +4279,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="T23" s="6" t="s">
         <v>68</v>
@@ -4293,19 +4287,19 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C24" s="4">
         <v>123961</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>180</v>
@@ -4314,7 +4308,7 @@
         <v>162</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I24" s="4">
         <v>22</v>
@@ -4350,33 +4344,33 @@
         <v>23</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C25" s="4">
         <v>243744</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>162</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I25" s="4">
         <v>23</v>
@@ -4409,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="T25" s="6" t="s">
         <v>32</v>
@@ -4417,28 +4411,28 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C26" s="6">
         <v>230764</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="G26" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="H26" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>629</v>
       </c>
       <c r="I26" s="4">
         <v>24</v>
@@ -4471,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="T26" s="6" t="s">
         <v>68</v>
@@ -4533,36 +4527,36 @@
         <v>1</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C28" s="4">
         <v>236939</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>630</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>632</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>278</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I28" s="4">
         <v>26</v>
@@ -4595,10 +4589,10 @@
         <v>1</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -4657,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="T29" s="6" t="s">
         <v>32</v>
@@ -4719,10 +4713,10 @@
         <v>1</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="T30" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -4781,10 +4775,10 @@
         <v>1</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -4843,10 +4837,10 @@
         <v>1</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -4905,10 +4899,10 @@
         <v>1</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -4967,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="T34" s="6" t="s">
         <v>32</v>
@@ -5029,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="T35" s="6" t="s">
         <v>68</v>
@@ -5091,10 +5085,10 @@
         <v>1</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="T36" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -5153,10 +5147,10 @@
         <v>1</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
@@ -5215,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="T38" s="6" t="s">
         <v>59</v>
@@ -5277,10 +5271,10 @@
         <v>1</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
@@ -5339,10 +5333,10 @@
         <v>1</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="T40" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
@@ -5401,10 +5395,10 @@
         <v>1</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
@@ -5463,10 +5457,10 @@
         <v>1</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
@@ -5525,10 +5519,10 @@
         <v>1</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="T43" s="6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
@@ -5587,10 +5581,10 @@
         <v>1</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="T44" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
@@ -5649,7 +5643,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="T45" s="6" t="s">
         <v>93</v>
@@ -5711,10 +5705,10 @@
         <v>1</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
@@ -5773,10 +5767,10 @@
         <v>1</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
@@ -5838,7 +5832,7 @@
         <v>68</v>
       </c>
       <c r="T48" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
@@ -5897,10 +5891,10 @@
         <v>1</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="T49" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
@@ -6021,10 +6015,10 @@
         <v>1</v>
       </c>
       <c r="S51" s="6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
@@ -6083,7 +6077,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="T52" s="6" t="s">
         <v>85</v>
@@ -6145,10 +6139,10 @@
         <v>1</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="T53" s="6" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
@@ -6207,7 +6201,7 @@
         <v>1</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="T54" s="6" t="s">
         <v>59</v>
@@ -6269,10 +6263,10 @@
         <v>1</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
@@ -6331,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="S56" s="6" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="T56" s="6" t="s">
         <v>68</v>
@@ -6393,10 +6387,10 @@
         <v>1</v>
       </c>
       <c r="S57" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
@@ -6455,10 +6449,10 @@
         <v>1</v>
       </c>
       <c r="S58" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="T58" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
@@ -6517,10 +6511,10 @@
         <v>1</v>
       </c>
       <c r="S59" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="T59" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
@@ -6579,10 +6573,10 @@
         <v>1</v>
       </c>
       <c r="S60" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="T60" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
@@ -6641,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="S61" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="T61" s="6" t="s">
         <v>32</v>
@@ -6703,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="S62" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="T62" s="6" t="s">
         <v>32</v>
@@ -6765,10 +6759,10 @@
         <v>1</v>
       </c>
       <c r="S63" s="6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="T63" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
@@ -6827,7 +6821,7 @@
         <v>1</v>
       </c>
       <c r="S64" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="T64" s="6" t="s">
         <v>68</v>
@@ -6889,10 +6883,10 @@
         <v>1</v>
       </c>
       <c r="S65" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="T65" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
@@ -6954,7 +6948,7 @@
         <v>32</v>
       </c>
       <c r="T66" s="6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
@@ -7013,10 +7007,10 @@
         <v>1</v>
       </c>
       <c r="S67" s="6" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="T67" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
@@ -7075,10 +7069,10 @@
         <v>1</v>
       </c>
       <c r="S68" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="T68" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
@@ -7140,7 +7134,7 @@
         <v>68</v>
       </c>
       <c r="T69" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
@@ -7199,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="S70" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="T70" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
@@ -7261,7 +7255,7 @@
         <v>1</v>
       </c>
       <c r="S71" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="T71" s="6" t="s">
         <v>32</v>
@@ -7323,10 +7317,10 @@
         <v>1</v>
       </c>
       <c r="S72" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="T72" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
@@ -7385,10 +7379,10 @@
         <v>1</v>
       </c>
       <c r="S73" s="6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="T73" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
@@ -7447,7 +7441,7 @@
         <v>1</v>
       </c>
       <c r="S74" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="T74" s="6" t="s">
         <v>32</v>
@@ -7512,7 +7506,7 @@
         <v>68</v>
       </c>
       <c r="T75" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
@@ -7571,10 +7565,10 @@
         <v>1</v>
       </c>
       <c r="S76" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="T76" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
@@ -7633,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="S77" s="6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="T77" s="6" t="s">
         <v>59</v>
@@ -7695,10 +7689,10 @@
         <v>1</v>
       </c>
       <c r="S78" s="6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="T78" s="6" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
@@ -7757,10 +7751,10 @@
         <v>1</v>
       </c>
       <c r="S79" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="T79" s="6" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
@@ -7819,7 +7813,7 @@
         <v>1</v>
       </c>
       <c r="S80" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="T80" s="6" t="s">
         <v>59</v>
@@ -7881,10 +7875,10 @@
         <v>1</v>
       </c>
       <c r="S81" s="6" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="T81" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
@@ -7943,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="S82" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="T82" s="6" t="s">
         <v>59</v>
@@ -8005,36 +7999,36 @@
         <v>1</v>
       </c>
       <c r="S83" s="6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="T83" s="6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="11">
         <v>159391</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>506</v>
-      </c>
       <c r="H84" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="I84" s="4">
         <v>82</v>
@@ -8067,36 +8061,36 @@
         <v>1</v>
       </c>
       <c r="S84" s="6" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="T84" s="6" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C85" s="4">
         <v>182281</v>
       </c>
       <c r="D85" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="G85" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="H85" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="I85" s="4">
         <v>83</v>
@@ -8129,7 +8123,7 @@
         <v>1</v>
       </c>
       <c r="S85" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="T85" s="6" t="s">
         <v>50</v>
@@ -8137,28 +8131,28 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C86" s="4">
         <v>100751</v>
       </c>
       <c r="D86" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="G86" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="H86" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>520</v>
       </c>
       <c r="I86" s="4">
         <v>84</v>
@@ -8191,36 +8185,36 @@
         <v>1</v>
       </c>
       <c r="S86" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="T86" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C87" s="4">
         <v>218663</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>205</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I87" s="4">
         <v>85</v>
@@ -8253,7 +8247,7 @@
         <v>1</v>
       </c>
       <c r="S87" s="6" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="T87" s="6" t="s">
         <v>68</v>
@@ -8261,28 +8255,28 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C88" s="4">
         <v>196413</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>219</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I88" s="4">
         <v>86</v>
@@ -8315,7 +8309,7 @@
         <v>1</v>
       </c>
       <c r="S88" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="T88" s="6" t="s">
         <v>59</v>
@@ -8323,28 +8317,28 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C89" s="4">
         <v>137351</v>
       </c>
       <c r="D89" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>547</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>199</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I89" s="4">
         <v>87</v>
@@ -8377,36 +8371,36 @@
         <v>1</v>
       </c>
       <c r="S89" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="T89" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C90" s="4">
         <v>232423</v>
       </c>
       <c r="D90" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>553</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>271</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I90" s="4">
         <v>88</v>
@@ -8439,36 +8433,36 @@
         <v>1</v>
       </c>
       <c r="S90" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="T90" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C91" s="4">
         <v>100858</v>
       </c>
       <c r="D91" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="H91" s="5" t="s">
         <v>557</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>559</v>
       </c>
       <c r="I91" s="4">
         <v>89</v>
@@ -8501,36 +8495,36 @@
         <v>1</v>
       </c>
       <c r="S91" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="T91" s="6" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C92" s="4">
         <v>184782</v>
       </c>
       <c r="D92" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>564</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I92" s="4">
         <v>90</v>
@@ -8563,36 +8557,36 @@
         <v>1</v>
       </c>
       <c r="S92" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="T92" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C93" s="4">
         <v>232186</v>
       </c>
       <c r="D93" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>570</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>271</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I93" s="4">
         <v>91</v>
@@ -8625,7 +8619,7 @@
         <v>1</v>
       </c>
       <c r="S93" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="T93" s="6" t="s">
         <v>118</v>
@@ -8647,7 +8641,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomRight" activeCell="E84" sqref="C84:E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8685,10 +8679,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>8</v>
@@ -8697,19 +8691,19 @@
         <v>9</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>573</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>575</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>11</v>
@@ -8762,37 +8756,37 @@
         <v>1</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -8830,31 +8824,31 @@
         <v>2</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U3" s="8" t="s">
         <v>31</v>
@@ -8898,31 +8892,31 @@
         <v>3</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U4" s="8" t="s">
         <v>40</v>
@@ -8966,31 +8960,31 @@
         <v>4</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U5" s="8" t="s">
         <v>49</v>
@@ -9034,31 +9028,31 @@
         <v>5</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U6" s="8" t="s">
         <v>58</v>
@@ -9102,31 +9096,31 @@
         <v>5</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U7" s="8" t="s">
         <v>58</v>
@@ -9170,31 +9164,31 @@
         <v>6</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U8" s="8" t="s">
         <v>67</v>
@@ -9238,31 +9232,31 @@
         <v>7</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U9" s="8" t="s">
         <v>76</v>
@@ -9306,31 +9300,31 @@
         <v>8</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U10" s="8" t="s">
         <v>84</v>
@@ -9374,31 +9368,31 @@
         <v>9</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U11" s="8" t="s">
         <v>93</v>
@@ -9442,31 +9436,31 @@
         <v>10</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U12" s="8" t="s">
         <v>101</v>
@@ -9510,31 +9504,31 @@
         <v>11</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U13" s="8" t="s">
         <v>109</v>
@@ -9578,31 +9572,31 @@
         <v>12</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U14" s="8" t="s">
         <v>118</v>
@@ -9646,31 +9640,31 @@
         <v>13</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U15" s="8" t="s">
         <v>127</v>
@@ -9714,31 +9708,31 @@
         <v>14</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U16" s="8" t="s">
         <v>136</v>
@@ -9749,22 +9743,22 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C17" s="8">
         <v>104151</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>523</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>155</v>
@@ -9782,37 +9776,37 @@
         <v>15</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U17" s="8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
@@ -9850,37 +9844,37 @@
         <v>16</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
@@ -9918,37 +9912,37 @@
         <v>17</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U19" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
@@ -9986,37 +9980,37 @@
         <v>18</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
@@ -10054,34 +10048,34 @@
         <v>19</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="V21" s="8" t="s">
         <v>68</v>
@@ -10122,57 +10116,57 @@
         <v>20</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U22" s="8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C23" s="8">
         <v>209542</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>618</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>620</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>252</v>
@@ -10190,34 +10184,34 @@
         <v>21</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U23" s="8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="V23" s="8" t="s">
         <v>68</v>
@@ -10225,19 +10219,19 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C24" s="8">
         <v>123961</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>180</v>
@@ -10258,57 +10252,57 @@
         <v>22</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C25" s="8">
         <v>243744</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>162</v>
@@ -10326,34 +10320,34 @@
         <v>23</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U25" s="8" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="V25" s="8" t="s">
         <v>32</v>
@@ -10361,28 +10355,28 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C26" s="8">
         <v>230764</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="H26" s="8" t="s">
         <v>627</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>629</v>
       </c>
       <c r="I26" s="8">
         <v>40.762484000000001</v>
@@ -10394,34 +10388,34 @@
         <v>24</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U26" s="8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="V26" s="8" t="s">
         <v>68</v>
@@ -10462,63 +10456,63 @@
         <v>25</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S27" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U27" s="8" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="V27" s="8" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C28" s="8">
         <v>236939</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>630</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>632</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>278</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I28" s="8">
         <v>46.730448000000003</v>
@@ -10530,37 +10524,37 @@
         <v>26</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U28" s="8" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="V28" s="8" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -10598,34 +10592,34 @@
         <v>27</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S29" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U29" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="V29" s="8" t="s">
         <v>32</v>
@@ -10666,37 +10660,37 @@
         <v>28</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U30" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
@@ -10734,37 +10728,37 @@
         <v>29</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U31" s="8" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="V31" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
@@ -10802,37 +10796,37 @@
         <v>30</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S32" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U32" s="8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="V32" s="8" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
@@ -10870,37 +10864,37 @@
         <v>31</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S33" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T33" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U33" s="8" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
@@ -10938,34 +10932,34 @@
         <v>32</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S34" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T34" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U34" s="8" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="V34" s="8" t="s">
         <v>32</v>
@@ -11006,34 +11000,34 @@
         <v>33</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S35" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U35" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="V35" s="8" t="s">
         <v>68</v>
@@ -11074,37 +11068,37 @@
         <v>34</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S36" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U36" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="V36" s="8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
@@ -11142,37 +11136,37 @@
         <v>35</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S37" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U37" s="8" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="V37" s="8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
@@ -11210,34 +11204,34 @@
         <v>36</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S38" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T38" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U38" s="8" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="V38" s="8" t="s">
         <v>59</v>
@@ -11278,37 +11272,37 @@
         <v>37</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S39" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U39" s="8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="V39" s="8" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
@@ -11346,37 +11340,37 @@
         <v>38</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S40" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T40" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U40" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="V40" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
@@ -11414,37 +11408,37 @@
         <v>39</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S41" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U41" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="V41" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
@@ -11482,37 +11476,37 @@
         <v>40</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S42" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T42" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U42" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="V42" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
@@ -11550,37 +11544,37 @@
         <v>41</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S43" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T43" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U43" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
@@ -11618,37 +11612,37 @@
         <v>42</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S44" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T44" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U44" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="V44" s="8" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
@@ -11686,34 +11680,34 @@
         <v>43</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S45" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T45" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U45" s="8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="V45" s="8" t="s">
         <v>93</v>
@@ -11754,37 +11748,37 @@
         <v>44</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S46" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T46" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U46" s="8" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
@@ -11822,37 +11816,37 @@
         <v>45</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S47" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T47" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U47" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="V47" s="8" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
@@ -11890,37 +11884,37 @@
         <v>46</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S48" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T48" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U48" s="8" t="s">
         <v>68</v>
       </c>
       <c r="V48" s="8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
@@ -11958,37 +11952,37 @@
         <v>47</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O49" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="S49" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="T49" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="U49" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="V49" s="8" t="s">
         <v>793</v>
-      </c>
-      <c r="P49" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="Q49" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="R49" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="S49" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="T49" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="U49" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="V49" s="8" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
@@ -12026,31 +12020,31 @@
         <v>48</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P50" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S50" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T50" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U50" s="8" t="s">
         <v>23</v>
@@ -12094,37 +12088,37 @@
         <v>49</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R51" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S51" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T51" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U51" s="8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
@@ -12162,34 +12156,34 @@
         <v>50</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R52" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S52" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T52" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U52" s="8" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="V52" s="8" t="s">
         <v>85</v>
@@ -12230,37 +12224,37 @@
         <v>51</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R53" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S53" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T53" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U53" s="8" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
@@ -12298,34 +12292,34 @@
         <v>52</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q54" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R54" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S54" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T54" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U54" s="8" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="V54" s="8" t="s">
         <v>59</v>
@@ -12366,37 +12360,37 @@
         <v>53</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q55" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R55" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S55" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T55" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U55" s="8" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="V55" s="8" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
@@ -12434,34 +12428,34 @@
         <v>54</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q56" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R56" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S56" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T56" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U56" s="8" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="V56" s="8" t="s">
         <v>68</v>
@@ -12502,37 +12496,37 @@
         <v>55</v>
       </c>
       <c r="L57" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q57" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="R57" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="S57" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="T57" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="U57" s="8" t="s">
         <v>794</v>
       </c>
-      <c r="M57" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="O57" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="P57" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="Q57" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="R57" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="S57" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="T57" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="U57" s="8" t="s">
-        <v>796</v>
-      </c>
       <c r="V57" s="8" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
@@ -12570,37 +12564,37 @@
         <v>56</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q58" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R58" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S58" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T58" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U58" s="8" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="V58" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
@@ -12638,37 +12632,37 @@
         <v>57</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q59" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R59" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S59" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T59" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U59" s="8" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
@@ -12706,37 +12700,37 @@
         <v>58</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P60" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q60" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R60" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S60" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T60" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U60" s="8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="V60" s="8" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
@@ -12774,34 +12768,34 @@
         <v>59</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q61" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R61" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S61" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T61" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U61" s="8" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="V61" s="8" t="s">
         <v>32</v>
@@ -12842,34 +12836,34 @@
         <v>60</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P62" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q62" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R62" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S62" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T62" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U62" s="8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="V62" s="8" t="s">
         <v>32</v>
@@ -12910,37 +12904,37 @@
         <v>61</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P63" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q63" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S63" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T63" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U63" s="8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="V63" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
@@ -12978,34 +12972,34 @@
         <v>62</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P64" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q64" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R64" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S64" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U64" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="V64" s="8" t="s">
         <v>68</v>
@@ -13046,37 +13040,37 @@
         <v>63</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P65" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R65" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S65" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T65" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U65" s="8" t="s">
         <v>68</v>
       </c>
       <c r="V65" s="8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
@@ -13114,37 +13108,37 @@
         <v>64</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P66" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q66" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R66" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S66" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T66" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U66" s="8" t="s">
         <v>32</v>
       </c>
       <c r="V66" s="8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
@@ -13182,37 +13176,37 @@
         <v>65</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q67" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R67" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S67" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T67" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U67" s="8" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="V67" s="8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
@@ -13250,37 +13244,37 @@
         <v>66</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P68" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q68" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R68" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S68" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T68" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U68" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="V68" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
@@ -13318,37 +13312,37 @@
         <v>67</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R69" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S69" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T69" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U69" s="8" t="s">
         <v>68</v>
       </c>
       <c r="V69" s="8" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
@@ -13386,37 +13380,37 @@
         <v>68</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S70" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T70" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U70" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="V70" s="8" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
@@ -13454,34 +13448,34 @@
         <v>69</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P71" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R71" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S71" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T71" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U71" s="8" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="V71" s="8" t="s">
         <v>32</v>
@@ -13522,37 +13516,37 @@
         <v>70</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R72" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S72" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T72" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U72" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="V72" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
@@ -13590,37 +13584,37 @@
         <v>71</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P73" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R73" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="S73" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T73" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U73" s="8" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="V73" s="8" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
@@ -13658,34 +13652,34 @@
         <v>72</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N74" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P74" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q74" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R74" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S74" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T74" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U74" s="8" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="V74" s="8" t="s">
         <v>32</v>
@@ -13726,37 +13720,37 @@
         <v>73</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P75" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q75" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R75" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S75" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T75" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U75" s="8" t="s">
         <v>68</v>
       </c>
       <c r="V75" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
@@ -13794,37 +13788,37 @@
         <v>74</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P76" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q76" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R76" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S76" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T76" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U76" s="8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="V76" s="8" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
@@ -13862,34 +13856,34 @@
         <v>75</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q77" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R77" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S77" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T77" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U77" s="8" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="V77" s="8" t="s">
         <v>59</v>
@@ -13930,37 +13924,37 @@
         <v>76</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P78" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q78" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R78" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S78" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T78" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U78" s="8" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="V78" s="8" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
@@ -13998,37 +13992,37 @@
         <v>77</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P79" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q79" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R79" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S79" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T79" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U79" s="8" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="V79" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
@@ -14066,34 +14060,34 @@
         <v>78</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P80" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q80" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R80" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S80" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T80" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U80" s="8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="V80" s="8" t="s">
         <v>59</v>
@@ -14134,37 +14128,37 @@
         <v>79</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P81" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q81" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R81" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S81" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T81" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U81" s="8" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="V81" s="8" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
@@ -14202,34 +14196,34 @@
         <v>80</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P82" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q82" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R82" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S82" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T82" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U82" s="8" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="V82" s="8" t="s">
         <v>59</v>
@@ -14270,42 +14264,42 @@
         <v>81</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P83" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q83" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R83" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S83" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T83" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U83" s="8" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="V83" s="8" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>503</v>
@@ -14314,19 +14308,19 @@
         <v>159391</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="I84" s="8">
         <v>30.41499</v>
@@ -14338,60 +14332,60 @@
         <v>82</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P84" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q84" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R84" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S84" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T84" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U84" s="8" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="V84" s="8" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C85" s="8">
         <v>182281</v>
       </c>
       <c r="D85" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="G85" s="8" t="s">
         <v>510</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>512</v>
       </c>
       <c r="H85" s="8">
         <v>89154</v>
@@ -14406,34 +14400,34 @@
         <v>83</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P85" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q85" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R85" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S85" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T85" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U85" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="V85" s="8" t="s">
         <v>50</v>
@@ -14441,28 +14435,28 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C86" s="8">
         <v>100751</v>
       </c>
       <c r="D86" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="G86" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="H86" s="8" t="s">
         <v>518</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>520</v>
       </c>
       <c r="I86" s="8">
         <v>33.211874999999999</v>
@@ -14474,60 +14468,60 @@
         <v>84</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N86" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P86" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q86" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R86" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S86" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T86" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U86" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="V86" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C87" s="8">
         <v>218663</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>205</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H87" s="8">
         <v>29208</v>
@@ -14542,34 +14536,34 @@
         <v>85</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P87" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q87" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R87" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S87" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T87" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U87" s="8" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="V87" s="8" t="s">
         <v>68</v>
@@ -14577,22 +14571,22 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C88" s="8">
         <v>196413</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>219</v>
@@ -14610,34 +14604,34 @@
         <v>86</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P88" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q88" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R88" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S88" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T88" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U88" s="8" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="V88" s="8" t="s">
         <v>59</v>
@@ -14645,28 +14639,28 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C89" s="8">
         <v>137351</v>
       </c>
       <c r="D89" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="F89" s="8" t="s">
         <v>545</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>547</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>199</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I89" s="8">
         <v>28.061457999999998</v>
@@ -14678,57 +14672,57 @@
         <v>87</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P89" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q89" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R89" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S89" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T89" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U89" s="8" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="V89" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C90" s="8">
         <v>232423</v>
       </c>
       <c r="D90" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>551</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>553</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>271</v>
@@ -14746,60 +14740,60 @@
         <v>88</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N90" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P90" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q90" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R90" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S90" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T90" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U90" s="8" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="V90" s="8" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C91" s="8">
         <v>100858</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H91" s="8">
         <v>36849</v>
@@ -14814,63 +14808,63 @@
         <v>89</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P91" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q91" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R91" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S91" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T91" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U91" s="8" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="V91" s="8" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C92" s="8">
         <v>184782</v>
       </c>
       <c r="D92" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="F92" s="8" t="s">
         <v>562</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>564</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>74</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I92" s="8">
         <v>39.709108000000001</v>
@@ -14882,63 +14876,63 @@
         <v>90</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M92" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N92" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P92" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q92" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R92" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S92" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T92" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U92" s="8" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="V92" s="8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C93" s="8">
         <v>232186</v>
       </c>
       <c r="D93" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="F93" s="8" t="s">
         <v>568</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>570</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>271</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I93" s="8">
         <v>38.829976000000002</v>
@@ -14950,34 +14944,34 @@
         <v>91</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P93" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q93" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R93" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S93" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T93" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U93" s="8" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="V93" s="8" t="s">
         <v>118</v>
@@ -15068,10 +15062,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -15103,7 +15097,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K3" t="s">
         <v>32</v>
@@ -15111,37 +15105,37 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C4">
         <v>198464</v>
       </c>
       <c r="D4" t="s">
+        <v>633</v>
+      </c>
+      <c r="E4" t="s">
+        <v>634</v>
+      </c>
+      <c r="F4" t="s">
         <v>635</v>
-      </c>
-      <c r="E4" t="s">
-        <v>636</v>
-      </c>
-      <c r="F4" t="s">
-        <v>637</v>
       </c>
       <c r="G4" t="s">
         <v>245</v>
       </c>
       <c r="H4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -15173,45 +15167,45 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C6">
         <v>105330</v>
       </c>
       <c r="D6" t="s">
+        <v>638</v>
+      </c>
+      <c r="E6" t="s">
+        <v>639</v>
+      </c>
+      <c r="F6" t="s">
         <v>640</v>
-      </c>
-      <c r="E6" t="s">
-        <v>641</v>
-      </c>
-      <c r="F6" t="s">
-        <v>642</v>
       </c>
       <c r="G6" t="s">
         <v>155</v>
       </c>
       <c r="H6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -15243,7 +15237,7 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K7" t="s">
         <v>68</v>
@@ -15278,42 +15272,42 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B9" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C9">
         <v>207388</v>
       </c>
       <c r="D9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E9" t="s">
+        <v>644</v>
+      </c>
+      <c r="F9" t="s">
         <v>645</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>646</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>647</v>
-      </c>
-      <c r="G9" t="s">
-        <v>648</v>
-      </c>
-      <c r="H9" t="s">
-        <v>649</v>
       </c>
       <c r="I9">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K9" t="s">
         <v>68</v>
@@ -15321,69 +15315,69 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B10" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C10">
         <v>209807</v>
       </c>
       <c r="D10" t="s">
+        <v>649</v>
+      </c>
+      <c r="E10" t="s">
+        <v>650</v>
+      </c>
+      <c r="F10" t="s">
         <v>651</v>
-      </c>
-      <c r="E10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F10" t="s">
-        <v>653</v>
       </c>
       <c r="G10" t="s">
         <v>252</v>
       </c>
       <c r="H10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I10">
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C11">
         <v>196079</v>
       </c>
       <c r="D11" t="s">
+        <v>654</v>
+      </c>
+      <c r="E11" t="s">
+        <v>655</v>
+      </c>
+      <c r="F11" t="s">
         <v>656</v>
-      </c>
-      <c r="E11" t="s">
-        <v>657</v>
-      </c>
-      <c r="F11" t="s">
-        <v>658</v>
       </c>
       <c r="G11" t="s">
         <v>219</v>
       </c>
       <c r="H11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K11" t="s">
         <v>32</v>
@@ -15391,104 +15385,104 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C12">
         <v>100751</v>
       </c>
       <c r="D12" t="s">
+        <v>514</v>
+      </c>
+      <c r="E12" t="s">
+        <v>515</v>
+      </c>
+      <c r="F12" t="s">
         <v>516</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>517</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>518</v>
-      </c>
-      <c r="G12" t="s">
-        <v>519</v>
-      </c>
-      <c r="H12" t="s">
-        <v>520</v>
       </c>
       <c r="I12">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B13" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C13">
         <v>220862</v>
       </c>
       <c r="D13" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E13" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F13" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G13" t="s">
         <v>463</v>
       </c>
       <c r="H13" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="I13">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K13" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B14" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C14">
         <v>182281</v>
       </c>
       <c r="D14" t="s">
+        <v>507</v>
+      </c>
+      <c r="E14" t="s">
+        <v>508</v>
+      </c>
+      <c r="F14" t="s">
         <v>509</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>510</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>511</v>
-      </c>
-      <c r="G14" t="s">
-        <v>512</v>
-      </c>
-      <c r="H14" t="s">
-        <v>513</v>
       </c>
       <c r="I14">
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K14" t="s">
         <v>50</v>
@@ -15496,69 +15490,69 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B15" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C15">
         <v>199148</v>
       </c>
       <c r="D15" t="s">
+        <v>665</v>
+      </c>
+      <c r="E15" t="s">
+        <v>666</v>
+      </c>
+      <c r="F15" t="s">
         <v>667</v>
-      </c>
-      <c r="E15" t="s">
-        <v>668</v>
-      </c>
-      <c r="F15" t="s">
-        <v>669</v>
       </c>
       <c r="G15" t="s">
         <v>245</v>
       </c>
       <c r="H15" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I15">
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K15" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B16" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C16">
         <v>200280</v>
       </c>
       <c r="D16" t="s">
+        <v>669</v>
+      </c>
+      <c r="E16" t="s">
+        <v>670</v>
+      </c>
+      <c r="F16" t="s">
         <v>671</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>672</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>673</v>
-      </c>
-      <c r="G16" t="s">
-        <v>674</v>
-      </c>
-      <c r="H16" t="s">
-        <v>675</v>
       </c>
       <c r="I16">
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K16" t="s">
         <v>32</v>
@@ -15566,28 +15560,28 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B17" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C17">
         <v>176372</v>
       </c>
       <c r="D17" t="s">
+        <v>674</v>
+      </c>
+      <c r="E17" t="s">
+        <v>675</v>
+      </c>
+      <c r="F17" t="s">
         <v>676</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>677</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>678</v>
-      </c>
-      <c r="G17" t="s">
-        <v>679</v>
-      </c>
-      <c r="H17" t="s">
-        <v>680</v>
       </c>
       <c r="I17">
         <v>16</v>
@@ -15596,7 +15590,7 @@
         <v>68</v>
       </c>
       <c r="K17" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/datasets_MSUpeers-WMUpeers.xlsx
+++ b/data-raw/datasets_MSUpeers-WMUpeers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilioxavieresposito/GitHub/theHUB/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297B7ADB-427A-D048-8F75-89846E664C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8809AEFD-CC90-4A4E-A4A7-AA026FB1E417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8660" yWindow="1860" windowWidth="35000" windowHeight="24980" xr2:uid="{88C0ADCA-6F07-6A4E-8FA9-4CD01068784F}"/>
   </bookViews>
@@ -2835,10 +2835,10 @@
   <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H84" sqref="H84"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3419,28 +3419,28 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="C10" s="4">
-        <v>145637</v>
+        <v>110662</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="I10" s="4">
         <v>8</v>
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="4" t="b">
         <v>0</v>
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="4" t="b">
         <v>1</v>
@@ -3473,36 +3473,36 @@
         <v>1</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>84</v>
+        <v>701</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>85</v>
+        <v>702</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C11" s="4">
-        <v>153658</v>
+        <v>145637</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I11" s="4">
         <v>9</v>
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="4" t="b">
         <v>1</v>
@@ -3535,36 +3535,36 @@
         <v>1</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C12" s="4">
-        <v>163286</v>
+        <v>153658</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I12" s="4">
         <v>10</v>
@@ -3582,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="4" t="b">
         <v>1</v>
@@ -3597,36 +3597,36 @@
         <v>1</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C13" s="4">
-        <v>170976</v>
+        <v>163286</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I13" s="4">
         <v>11</v>
@@ -3644,13 +3644,13 @@
         <v>1</v>
       </c>
       <c r="N13" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="4" t="b">
         <v>1</v>
       </c>
       <c r="P13" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="4" t="b">
         <v>0</v>
@@ -3659,36 +3659,36 @@
         <v>1</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C14" s="4">
-        <v>174066</v>
+        <v>170976</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="I14" s="4">
         <v>12</v>
@@ -3706,13 +3706,13 @@
         <v>1</v>
       </c>
       <c r="N14" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="4" t="b">
         <v>1</v>
       </c>
       <c r="P14" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="4" t="b">
         <v>0</v>
@@ -3721,36 +3721,36 @@
         <v>1</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C15" s="4">
-        <v>181464</v>
+        <v>174066</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I15" s="4">
         <v>13</v>
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="4" t="b">
         <v>0</v>
@@ -3783,36 +3783,36 @@
         <v>1</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C16" s="4">
-        <v>240444</v>
+        <v>181464</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="I16" s="4">
         <v>14</v>
@@ -3833,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="4" t="b">
         <v>0</v>
@@ -3845,42 +3845,42 @@
         <v>1</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>519</v>
+        <v>247</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>520</v>
+        <v>248</v>
       </c>
       <c r="C17" s="4">
-        <v>104151</v>
+        <v>209551</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>521</v>
+        <v>249</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>522</v>
+        <v>250</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>523</v>
+        <v>251</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>524</v>
+        <v>253</v>
       </c>
       <c r="I17" s="4">
         <v>15</v>
       </c>
       <c r="J17" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="4" t="b">
         <v>1</v>
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="4" t="b">
         <v>0</v>
@@ -3907,42 +3907,42 @@
         <v>1</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>150</v>
+        <v>525</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>151</v>
+        <v>526</v>
       </c>
       <c r="C18" s="4">
-        <v>104179</v>
+        <v>123961</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>152</v>
+        <v>527</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>153</v>
+        <v>528</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>156</v>
+        <v>529</v>
       </c>
       <c r="I18" s="4">
         <v>16</v>
       </c>
       <c r="J18" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="4" t="b">
         <v>1</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="4" t="b">
         <v>1</v>
@@ -3969,42 +3969,42 @@
         <v>1</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>697</v>
+        <v>23</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>158</v>
+        <v>274</v>
       </c>
       <c r="C19" s="4">
-        <v>110635</v>
+        <v>236948</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>162</v>
+        <v>278</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="I19" s="4">
         <v>17</v>
       </c>
       <c r="J19" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="4" t="b">
         <v>1</v>
@@ -4016,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="4" t="b">
         <v>1</v>
@@ -4031,45 +4031,45 @@
         <v>1</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="C20" s="4">
-        <v>110662</v>
+        <v>240444</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="I20" s="4">
         <v>18</v>
       </c>
       <c r="J20" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="4" t="b">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="4" t="b">
         <v>1</v>
@@ -4093,36 +4093,36 @@
         <v>1</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>701</v>
+        <v>136</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>702</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>226</v>
+        <v>519</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>227</v>
+        <v>520</v>
       </c>
       <c r="C21" s="4">
-        <v>126614</v>
+        <v>104151</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>228</v>
+        <v>521</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>229</v>
+        <v>522</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>230</v>
+        <v>523</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>232</v>
+        <v>524</v>
       </c>
       <c r="I21" s="4">
         <v>19</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="4" t="b">
         <v>0</v>
@@ -4155,36 +4155,36 @@
         <v>1</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>68</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="C22" s="4">
-        <v>209551</v>
+        <v>104179</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>252</v>
+        <v>155</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="I22" s="4">
         <v>20</v>
@@ -4202,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="4" t="b">
         <v>1</v>
@@ -4217,36 +4217,36 @@
         <v>1</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>574</v>
+        <v>157</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>581</v>
+        <v>158</v>
       </c>
       <c r="C23" s="4">
-        <v>209542</v>
+        <v>110635</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>616</v>
+        <v>159</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>617</v>
+        <v>160</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>618</v>
+        <v>161</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>619</v>
+        <v>163</v>
       </c>
       <c r="I23" s="4">
         <v>21</v>
@@ -4267,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="4" t="b">
         <v>0</v>
@@ -4279,36 +4279,36 @@
         <v>1</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>68</v>
+        <v>700</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>525</v>
+        <v>226</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>526</v>
+        <v>227</v>
       </c>
       <c r="C24" s="4">
-        <v>123961</v>
+        <v>126614</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>527</v>
+        <v>228</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>528</v>
+        <v>229</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>529</v>
+        <v>232</v>
       </c>
       <c r="I24" s="4">
         <v>22</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="4" t="b">
         <v>0</v>
@@ -4341,36 +4341,36 @@
         <v>1</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>23</v>
+        <v>703</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>707</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C25" s="4">
-        <v>243744</v>
+        <v>209542</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>580</v>
+        <v>618</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="I25" s="4">
         <v>23</v>
@@ -4385,13 +4385,13 @@
         <v>0</v>
       </c>
       <c r="M25" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="4" t="b">
         <v>0</v>
@@ -4403,36 +4403,36 @@
         <v>1</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="C26" s="6">
-        <v>230764</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>625</v>
+        <v>580</v>
+      </c>
+      <c r="C26" s="4">
+        <v>243744</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>627</v>
+        <v>162</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>622</v>
       </c>
       <c r="I26" s="4">
         <v>24</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="4" t="b">
         <v>0</v>
@@ -4465,36 +4465,36 @@
         <v>1</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>273</v>
+        <v>576</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C27" s="4">
-        <v>236948</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>277</v>
+        <v>579</v>
+      </c>
+      <c r="C27" s="6">
+        <v>230764</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>625</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>279</v>
+        <v>626</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>627</v>
       </c>
       <c r="I27" s="4">
         <v>25</v>
@@ -4527,10 +4527,10 @@
         <v>1</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>694</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
